--- a/5-Implementación/03- Cuadro_Proveedores/02- Informe_Cuadro_Comparativo_Proveedores.xlsx
+++ b/5-Implementación/03- Cuadro_Proveedores/02- Informe_Cuadro_Comparativo_Proveedores.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ADSI - 1803170 G1-G3\Proyecto_Formativo\Kyukeisho_New\5-Implementación\03- Cuadro_Proveedores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Pictures\ADSI\Kyukeisho_New\5-Implementación\03- Cuadro_Proveedores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81820040-C683-4E7C-AE47-C015F4B4F966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D70D6FFF-FCA0-428F-93B6-D6AB326B0216}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,9 +50,6 @@
     <t>ALKOSTO</t>
   </si>
   <si>
-    <t>Host y dominio</t>
-  </si>
-  <si>
     <t>UNILAGO</t>
   </si>
   <si>
@@ -1308,12 +1304,15 @@
   </si>
   <si>
     <t>Precio total con hosting anual: $ 1.870.000</t>
+  </si>
+  <si>
+    <t>Hosting y dominio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
   </numFmts>
@@ -1805,11 +1804,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51526E9A-AD4D-4D0E-9604-D1A38846E746}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,43 +1830,43 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>20</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1878,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E2" s="21">
         <v>5</v>
@@ -1890,25 +1889,25 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="9">
         <v>2299000</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -1919,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="E3" s="13">
         <v>5</v>
@@ -1931,25 +1930,25 @@
         <v>3</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="18">
         <v>1518000</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -1960,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="21">
         <v>5</v>
@@ -1972,25 +1971,25 @@
         <v>5</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4" s="9">
         <v>2249000</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -1998,40 +1997,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="E5" s="13">
         <v>5</v>
       </c>
       <c r="F5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>8</v>
-      </c>
       <c r="J5" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="18">
         <v>1350000</v>
       </c>
       <c r="L5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -2042,37 +2041,37 @@
         <v>0</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E6" s="21">
         <v>5</v>
       </c>
       <c r="F6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="J6" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="9">
         <v>1450000</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
